--- a/spike templates_5.xlsx
+++ b/spike templates_5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>fileID</t>
   </si>
@@ -85,7 +85,7 @@
     <t>22234:22285</t>
   </si>
   <si>
-    <t>02103:02171</t>
+    <t>20905:20970</t>
   </si>
   <si>
     <t>20210119-Axillary-M1-T4-rec</t>
@@ -94,7 +94,7 @@
     <t>T4</t>
   </si>
   <si>
-    <t>21466:21522</t>
+    <t>21609:21646</t>
   </si>
   <si>
     <t>20210119-Axillary-M1-T5-rec</t>
@@ -103,13 +103,16 @@
     <t>T5</t>
   </si>
   <si>
+    <t>23781:23894</t>
+  </si>
+  <si>
     <t>20210119-Axillary-M1-T6-rec</t>
   </si>
   <si>
     <t>T6</t>
   </si>
   <si>
-    <t>21372:21425</t>
+    <t>21379:21452</t>
   </si>
   <si>
     <t>20210120-Axillary-M2-T1-rec</t>
@@ -154,6 +157,9 @@
     <t>20210120-Axillary-M2-T6-rec</t>
   </si>
   <si>
+    <t>20729:20795</t>
+  </si>
+  <si>
     <t>20210120-Axillary-M3-T1-rec</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>21420:21462</t>
   </si>
   <si>
+    <t>23548:23592</t>
+  </si>
+  <si>
     <t>20210120-Axillary-M3-T2-rec</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>897:971</t>
+  </si>
+  <si>
+    <t>21295:21342</t>
   </si>
   <si>
     <t>20210120-Axillary-M3-T4-rec</t>
@@ -200,13 +212,17 @@
     </r>
   </si>
   <si>
-    <t>23781:23894</t>
+    <t>24651:24705</t>
   </si>
   <si>
     <t>20210120-Axillary-M3-T6-rec</t>
   </si>
   <si>
-    <t>897:973</t>
+    <t xml:space="preserve">21211:21250
+</t>
+  </si>
+  <si>
+    <t>20210:20306</t>
   </si>
   <si>
     <t>20210121-Axillary-M4-T1-rec</t>
@@ -215,19 +231,25 @@
     <t>20210121-Axillary-M4</t>
   </si>
   <si>
-    <t>897:974</t>
+    <t>26176:26216</t>
   </si>
   <si>
     <t>20210121-Axillary-M4-T2-rec</t>
   </si>
   <si>
-    <t>897:975</t>
+    <t>21244:21276</t>
+  </si>
+  <si>
+    <t>18570:18620</t>
   </si>
   <si>
     <t>20210121-Axillary-M4-T3-rec</t>
   </si>
   <si>
-    <t>897:976</t>
+    <t>15498:15547</t>
+  </si>
+  <si>
+    <t>21008:21043</t>
   </si>
   <si>
     <t>20210121-Axillary-M5-T1-rec</t>
@@ -236,49 +258,52 @@
     <t>20210121-Axillary-M5</t>
   </si>
   <si>
-    <t>897:977</t>
+    <t>22502:22568</t>
+  </si>
+  <si>
+    <t>23435:23525</t>
   </si>
   <si>
     <t>20210121-Axillary-M5-T2-rec</t>
   </si>
   <si>
-    <t>897:978</t>
+    <t>21328:21398</t>
   </si>
   <si>
     <t>20210121-Axillary-M5-T4-rec</t>
   </si>
   <si>
+    <t>20099:20163</t>
+  </si>
+  <si>
     <t>20210121-Axillary-M5-T6-rec</t>
   </si>
   <si>
+    <t>22291:22359</t>
+  </si>
+  <si>
     <t>20210122-Axillary-M6-T1-rec</t>
   </si>
   <si>
     <t>20210122-Axillary-M6</t>
   </si>
   <si>
-    <t>28005:28039</t>
-  </si>
-  <si>
-    <t>22170:22200</t>
+    <t>22159:22214</t>
   </si>
   <si>
     <t>20210122-Axillary-M6-T2-rec</t>
   </si>
   <si>
-    <t>21594:21698</t>
-  </si>
-  <si>
-    <t>6332:6424</t>
+    <t>21311:21430</t>
+  </si>
+  <si>
+    <t>21587:21646</t>
   </si>
   <si>
     <t>20210122-Axillary-M6-T3-rec</t>
   </si>
   <si>
-    <t>3503:3584</t>
-  </si>
-  <si>
-    <t>28415:28443</t>
+    <t>23615:23679</t>
   </si>
   <si>
     <t>20210122-Axillary-M6-T4-rec</t>
@@ -711,6 +736,12 @@
   </si>
   <si>
     <t>20210120-Subalar-M8-T6-rec</t>
+  </si>
+  <si>
+    <t>23791:23876</t>
+  </si>
+  <si>
+    <t>27510:27592</t>
   </si>
 </sst>
 </file>
@@ -748,6 +779,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="12"/>
       <name val="Arial"/>
@@ -761,11 +797,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Courier"/>
     </font>
     <font>
       <sz val="10"/>
@@ -787,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1025,6 +1056,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -1056,7 +1102,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1108,6 +1154,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1117,31 +1166,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2209,7 +2267,10 @@
     <col min="1" max="1" width="22.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1719" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9531" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="13" width="8.85156" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2368,10 +2429,10 @@
       <c r="D5" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" t="s" s="17">
         <v>27</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15">
@@ -2401,8 +2462,8 @@
       <c r="D6" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="E6" t="s" s="7">
-        <v>27</v>
+      <c r="E6" t="s" s="17">
+        <v>30</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="14"/>
@@ -2423,7 +2484,7 @@
     </row>
     <row r="7" ht="26.75" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>14</v>
@@ -2432,12 +2493,12 @@
         <v>15</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="E7" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="F7" s="19"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15">
@@ -2456,22 +2517,22 @@
     </row>
     <row r="8" ht="26.75" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C8" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E8" t="s" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="14"/>
@@ -2491,22 +2552,22 @@
     </row>
     <row r="9" ht="26.75" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E9" t="s" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="14"/>
@@ -2526,24 +2587,24 @@
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="12">
         <v>26</v>
       </c>
       <c r="E10" t="s" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15">
         <v>10000</v>
@@ -2561,25 +2622,25 @@
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s" s="12">
         <v>29</v>
       </c>
       <c r="E11" t="s" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="15">
@@ -2598,22 +2659,22 @@
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C12" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s" s="7">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="14"/>
       <c r="I12" s="15">
         <v>10000</v>
@@ -2631,21 +2692,23 @@
     </row>
     <row r="13" ht="22.7" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C13" t="s" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="E13" t="s" s="20">
-        <v>49</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="E13" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s" s="21">
+        <v>52</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15">
@@ -2664,22 +2727,22 @@
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C14" t="s" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s" s="12">
         <v>19</v>
       </c>
       <c r="E14" t="s" s="22">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s" s="23">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="14"/>
@@ -2699,22 +2762,24 @@
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C15" t="s" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E15" t="s" s="24">
-        <v>54</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="F15" t="s" s="22">
+        <v>58</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15">
         <v>10000</v>
@@ -2732,24 +2797,26 @@
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C16" t="s" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s" s="11">
         <v>26</v>
       </c>
       <c r="E16" t="s" s="25">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="G16" t="s" s="27">
+        <v>61</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15">
         <v>10000</v>
@@ -2767,22 +2834,26 @@
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C17" t="s" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s" s="25">
-        <v>59</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="E17" t="s" s="27">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s" s="27">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s" s="27">
+        <v>64</v>
+      </c>
       <c r="H17" s="14"/>
       <c r="I17" s="15">
         <v>10000</v>
@@ -2800,21 +2871,23 @@
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C18" t="s" s="11">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="E18" t="s" s="25">
-        <v>62</v>
-      </c>
-      <c r="F18" s="14"/>
+      <c r="E18" t="s" s="27">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s" s="27">
+        <v>67</v>
+      </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="15">
@@ -2833,21 +2906,23 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C19" t="s" s="11">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="F19" s="14"/>
+      <c r="E19" t="s" s="27">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s" s="27">
+        <v>70</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15">
@@ -2866,21 +2941,23 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C20" t="s" s="11">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="E20" t="s" s="25">
-        <v>66</v>
-      </c>
-      <c r="F20" s="14"/>
+      <c r="E20" t="s" s="27">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s" s="27">
+        <v>73</v>
+      </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="15">
@@ -2899,21 +2976,23 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C21" t="s" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s" s="11">
         <v>16</v>
       </c>
       <c r="E21" t="s" s="25">
-        <v>69</v>
-      </c>
-      <c r="F21" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="F21" t="s" s="25">
+        <v>77</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15">
@@ -2932,19 +3011,19 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C22" t="s" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s" s="11">
         <v>19</v>
       </c>
       <c r="E22" t="s" s="25">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2965,19 +3044,21 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C23" t="s" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" t="s" s="25">
+        <v>81</v>
+      </c>
+      <c r="F23" s="25"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15">
@@ -2996,19 +3077,21 @@
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C24" t="s" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="E24" t="s" s="25">
+        <v>83</v>
+      </c>
+      <c r="F24" s="25"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="15">
@@ -3027,23 +3110,21 @@
     </row>
     <row r="25" ht="26.75" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C25" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="E25" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s" s="23">
-        <v>77</v>
-      </c>
+      <c r="E25" t="s" s="25">
+        <v>86</v>
+      </c>
+      <c r="F25" s="28"/>
       <c r="G25" s="16"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15">
@@ -3062,24 +3143,24 @@
     </row>
     <row r="26" ht="22.7" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C26" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="20">
-        <v>79</v>
-      </c>
-      <c r="F26" t="s" s="20">
-        <v>80</v>
-      </c>
-      <c r="G26" s="16"/>
+      <c r="E26" t="s" s="25">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="15">
         <v>10000</v>
@@ -3097,23 +3178,21 @@
     </row>
     <row r="27" ht="22.7" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C27" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="E27" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="F27" t="s" s="20">
-        <v>83</v>
-      </c>
+      <c r="E27" t="s" s="25">
+        <v>91</v>
+      </c>
+      <c r="F27" s="29"/>
       <c r="G27" s="16"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15">
@@ -3132,19 +3211,19 @@
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C28" t="s" s="11">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="15">
@@ -3163,13 +3242,13 @@
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C29" t="s" s="11">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s" s="11">
         <v>29</v>
@@ -3194,16 +3273,16 @@
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="11">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C30" t="s" s="11">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -3225,13 +3304,13 @@
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="11">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C31" t="s" s="11">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s" s="11">
         <v>16</v>
@@ -3256,13 +3335,13 @@
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C32" t="s" s="11">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s" s="11">
         <v>19</v>
@@ -3287,13 +3366,13 @@
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="11">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C33" t="s" s="11">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s" s="11">
         <v>22</v>
@@ -3318,13 +3397,13 @@
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="11">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C34" t="s" s="11">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s" s="11">
         <v>26</v>
@@ -3349,20 +3428,20 @@
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="11">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s" s="11">
         <v>14</v>
       </c>
       <c r="C35" t="s" s="11">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15">
         <v>10000</v>
@@ -3380,25 +3459,25 @@
     </row>
     <row r="36" ht="26.75" customHeight="1">
       <c r="A36" t="s" s="11">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E36" t="s" s="7">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s" s="7">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s" s="7">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="15">
@@ -3417,24 +3496,24 @@
     </row>
     <row r="37" ht="26.75" customHeight="1">
       <c r="A37" t="s" s="11">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
       <c r="E37" t="s" s="7">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="G37" s="21"/>
+        <v>104</v>
+      </c>
+      <c r="G37" s="31"/>
       <c r="H37" s="16"/>
       <c r="I37" s="15">
         <v>10000</v>
@@ -3452,24 +3531,24 @@
     </row>
     <row r="38" ht="26.75" customHeight="1">
       <c r="A38" t="s" s="11">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E38" t="s" s="7">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="G38" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="G38" s="31"/>
       <c r="H38" s="16"/>
       <c r="I38" s="15">
         <v>10000</v>
@@ -3487,20 +3566,20 @@
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="11">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="14"/>
       <c r="I39" s="15">
         <v>10000</v>
@@ -3518,20 +3597,20 @@
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="11">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="14"/>
       <c r="I40" s="15">
         <v>10000</v>
@@ -3549,20 +3628,20 @@
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="11">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="14"/>
       <c r="I41" s="15">
         <v>10000</v>
@@ -3580,20 +3659,20 @@
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="11">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s" s="11">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="14"/>
       <c r="I42" s="15">
         <v>10000</v>
@@ -3611,13 +3690,13 @@
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="11">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s" s="11">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s" s="11">
         <v>29</v>
@@ -3642,16 +3721,16 @@
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="11">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s" s="11">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -3673,13 +3752,13 @@
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="11">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s" s="11">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s" s="11">
         <v>16</v>
@@ -3704,13 +3783,13 @@
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="11">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s" s="11">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s" s="11">
         <v>22</v>
@@ -3735,13 +3814,13 @@
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="11">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s" s="11">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s" s="11">
         <v>29</v>
@@ -3766,13 +3845,13 @@
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="11">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s" s="11">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s" s="11">
         <v>26</v>
@@ -3797,13 +3876,13 @@
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="11">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s" s="11">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s" s="11">
         <v>29</v>
@@ -3828,16 +3907,16 @@
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" t="s" s="11">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="11">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -3859,13 +3938,13 @@
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="11">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s" s="11">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s" s="11">
         <v>26</v>
@@ -3890,13 +3969,13 @@
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="11">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s" s="11">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s" s="11">
         <v>29</v>
@@ -3921,19 +4000,19 @@
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" t="s" s="11">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s" s="11">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="15">
@@ -3952,21 +4031,21 @@
     </row>
     <row r="54" ht="26.75" customHeight="1">
       <c r="A54" t="s" s="11">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s" s="11">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E54" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="F54" s="21"/>
+        <v>134</v>
+      </c>
+      <c r="F54" s="31"/>
       <c r="G54" s="16"/>
       <c r="H54" s="14"/>
       <c r="I54" s="15">
@@ -3985,22 +4064,22 @@
     </row>
     <row r="55" ht="26.75" customHeight="1">
       <c r="A55" t="s" s="11">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s" s="11">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="29">
-        <v>128</v>
-      </c>
-      <c r="F55" t="s" s="29">
-        <v>129</v>
+      <c r="E55" t="s" s="33">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s" s="33">
+        <v>137</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="14"/>
@@ -4020,19 +4099,19 @@
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="11">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s" s="11">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="15">
@@ -4051,22 +4130,22 @@
     </row>
     <row r="57" ht="26.75" customHeight="1">
       <c r="A57" t="s" s="11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s" s="11">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E57" t="s" s="7">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F57" t="s" s="7">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="14"/>
@@ -4086,22 +4165,22 @@
     </row>
     <row r="58" ht="26.75" customHeight="1">
       <c r="A58" t="s" s="11">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s" s="11">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="29">
-        <v>136</v>
-      </c>
-      <c r="F58" t="s" s="29">
-        <v>137</v>
+      <c r="E58" t="s" s="33">
+        <v>144</v>
+      </c>
+      <c r="F58" t="s" s="33">
+        <v>145</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="14"/>
@@ -4121,19 +4200,19 @@
     </row>
     <row r="59" ht="13.55" customHeight="1">
       <c r="A59" t="s" s="11">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s" s="11">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="15">
@@ -4152,22 +4231,22 @@
     </row>
     <row r="60" ht="26.75" customHeight="1">
       <c r="A60" t="s" s="11">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s" s="11">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="29">
-        <v>141</v>
-      </c>
-      <c r="F60" t="s" s="29">
-        <v>142</v>
+      <c r="E60" t="s" s="33">
+        <v>149</v>
+      </c>
+      <c r="F60" t="s" s="33">
+        <v>150</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="14"/>
@@ -4187,20 +4266,20 @@
     </row>
     <row r="61" ht="13.55" customHeight="1">
       <c r="A61" t="s" s="11">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s" s="11">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
       <c r="H61" s="14"/>
       <c r="I61" s="15">
         <v>10000</v>
@@ -4218,24 +4297,24 @@
     </row>
     <row r="62" ht="26.75" customHeight="1">
       <c r="A62" t="s" s="11">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s" s="11">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E62" t="s" s="7">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="G62" s="21"/>
+        <v>155</v>
+      </c>
+      <c r="G62" s="31"/>
       <c r="H62" s="16"/>
       <c r="I62" s="15">
         <v>10000</v>
@@ -4253,25 +4332,25 @@
     </row>
     <row r="63" ht="26.75" customHeight="1">
       <c r="A63" t="s" s="11">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s" s="11">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E63" t="s" s="7">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F63" t="s" s="7">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G63" t="s" s="7">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="15">
@@ -4290,20 +4369,20 @@
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="11">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s" s="11">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="14"/>
       <c r="I64" s="15">
         <v>10000</v>
@@ -4321,13 +4400,13 @@
     </row>
     <row r="65" ht="13.55" customHeight="1">
       <c r="A65" t="s" s="11">
+        <v>161</v>
+      </c>
+      <c r="B65" t="s" s="11">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s" s="11">
         <v>153</v>
-      </c>
-      <c r="B65" t="s" s="11">
-        <v>124</v>
-      </c>
-      <c r="C65" t="s" s="11">
-        <v>145</v>
       </c>
       <c r="D65" t="s" s="11">
         <v>29</v>
@@ -4352,19 +4431,19 @@
     </row>
     <row r="66" ht="13.55" customHeight="1">
       <c r="A66" t="s" s="11">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s" s="11">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="15">
@@ -4383,22 +4462,22 @@
     </row>
     <row r="67" ht="26.75" customHeight="1">
       <c r="A67" t="s" s="11">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s" s="11">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E67" t="s" s="7">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F67" t="s" s="7">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="14"/>
@@ -4418,22 +4497,22 @@
     </row>
     <row r="68" ht="26.75" customHeight="1">
       <c r="A68" t="s" s="11">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B68" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s" s="11">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
       <c r="E68" t="s" s="7">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s" s="7">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="14"/>
@@ -4453,22 +4532,22 @@
     </row>
     <row r="69" ht="26.75" customHeight="1">
       <c r="A69" t="s" s="11">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s" s="11">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E69" t="s" s="7">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F69" t="s" s="7">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="14"/>
@@ -4488,19 +4567,19 @@
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="11">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s" s="11">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="19"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="20"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="15">
@@ -4519,19 +4598,19 @@
     </row>
     <row r="71" ht="13.55" customHeight="1">
       <c r="A71" t="s" s="11">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E71" t="s" s="7">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="14"/>
@@ -4552,19 +4631,19 @@
     </row>
     <row r="72" ht="13.55" customHeight="1">
       <c r="A72" t="s" s="11">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s" s="12">
         <v>19</v>
       </c>
       <c r="E72" t="s" s="7">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="14"/>
@@ -4585,18 +4664,18 @@
     </row>
     <row r="73" ht="13.55" customHeight="1">
       <c r="A73" t="s" s="11">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C73" t="s" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="E73" s="19"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -4616,13 +4695,13 @@
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s" s="11">
         <v>26</v>
@@ -4647,19 +4726,19 @@
     </row>
     <row r="75" ht="13.55" customHeight="1">
       <c r="A75" t="s" s="11">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="15">
@@ -4678,19 +4757,19 @@
     </row>
     <row r="76" ht="26.75" customHeight="1">
       <c r="A76" t="s" s="11">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s" s="11">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E76" t="s" s="7">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="16"/>
@@ -4711,13 +4790,13 @@
     </row>
     <row r="77" ht="26.75" customHeight="1">
       <c r="A77" t="s" s="11">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s" s="11">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s" s="12">
         <v>26</v>
@@ -4742,22 +4821,22 @@
     </row>
     <row r="78" ht="26.75" customHeight="1">
       <c r="A78" t="s" s="11">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s" s="11">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E78" t="s" s="7">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F78" t="s" s="7">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="14"/>
@@ -4777,22 +4856,22 @@
     </row>
     <row r="79" ht="26.75" customHeight="1">
       <c r="A79" t="s" s="11">
+        <v>191</v>
+      </c>
+      <c r="B79" t="s" s="11">
         <v>183</v>
       </c>
-      <c r="B79" t="s" s="11">
-        <v>175</v>
-      </c>
       <c r="C79" t="s" s="11">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E79" t="s" s="7">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F79" t="s" s="7">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="14"/>
@@ -4812,19 +4891,19 @@
     </row>
     <row r="80" ht="13.55" customHeight="1">
       <c r="A80" t="s" s="11">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s" s="11">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="15">
@@ -4843,13 +4922,13 @@
     </row>
     <row r="81" ht="13.55" customHeight="1">
       <c r="A81" t="s" s="11">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s" s="11">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s" s="11">
         <v>29</v>
@@ -4874,16 +4953,16 @@
     </row>
     <row r="82" ht="13.55" customHeight="1">
       <c r="A82" t="s" s="11">
+        <v>196</v>
+      </c>
+      <c r="B82" t="s" s="11">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s" s="11">
         <v>188</v>
       </c>
-      <c r="B82" t="s" s="11">
-        <v>175</v>
-      </c>
-      <c r="C82" t="s" s="11">
-        <v>180</v>
-      </c>
       <c r="D82" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
@@ -4905,13 +4984,13 @@
     </row>
     <row r="83" ht="13.55" customHeight="1">
       <c r="A83" t="s" s="11">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s" s="11">
         <v>16</v>
@@ -4936,13 +5015,13 @@
     </row>
     <row r="84" ht="13.55" customHeight="1">
       <c r="A84" t="s" s="11">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D84" t="s" s="11">
         <v>19</v>
@@ -4967,13 +5046,13 @@
     </row>
     <row r="85" ht="13.55" customHeight="1">
       <c r="A85" t="s" s="11">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s" s="11">
         <v>22</v>
@@ -4998,20 +5077,20 @@
     </row>
     <row r="86" ht="13.55" customHeight="1">
       <c r="A86" t="s" s="11">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B86" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
       <c r="H86" s="14"/>
       <c r="I86" s="15">
         <v>10000</v>
@@ -5029,25 +5108,25 @@
     </row>
     <row r="87" ht="26.75" customHeight="1">
       <c r="A87" t="s" s="11">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C87" t="s" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D87" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E87" t="s" s="7">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s" s="7">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G87" t="s" s="7">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="15">
@@ -5066,24 +5145,24 @@
     </row>
     <row r="88" ht="26.75" customHeight="1">
       <c r="A88" t="s" s="11">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
       <c r="E88" t="s" s="7">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F88" t="s" s="7">
-        <v>201</v>
-      </c>
-      <c r="G88" s="21"/>
+        <v>209</v>
+      </c>
+      <c r="G88" s="31"/>
       <c r="H88" s="16"/>
       <c r="I88" s="15">
         <v>10000</v>
@@ -5101,24 +5180,24 @@
     </row>
     <row r="89" ht="26.75" customHeight="1">
       <c r="A89" t="s" s="11">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E89" t="s" s="7">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s" s="7">
-        <v>204</v>
-      </c>
-      <c r="G89" s="21"/>
+        <v>212</v>
+      </c>
+      <c r="G89" s="31"/>
       <c r="H89" s="16"/>
       <c r="I89" s="15">
         <v>10000</v>
@@ -5136,20 +5215,20 @@
     </row>
     <row r="90" ht="13.55" customHeight="1">
       <c r="A90" t="s" s="11">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B90" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
       <c r="H90" s="14"/>
       <c r="I90" s="15">
         <v>10000</v>
@@ -5167,13 +5246,13 @@
     </row>
     <row r="91" ht="13.55" customHeight="1">
       <c r="A91" t="s" s="11">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s" s="11">
         <v>29</v>
@@ -5198,19 +5277,19 @@
     </row>
     <row r="92" ht="13.55" customHeight="1">
       <c r="A92" t="s" s="11">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D92" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="15">
@@ -5229,22 +5308,22 @@
     </row>
     <row r="93" ht="26.75" customHeight="1">
       <c r="A93" t="s" s="11">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E93" t="s" s="7">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F93" t="s" s="7">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="14"/>
@@ -5264,22 +5343,22 @@
     </row>
     <row r="94" ht="26.75" customHeight="1">
       <c r="A94" t="s" s="11">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s" s="12">
         <v>19</v>
       </c>
       <c r="E94" t="s" s="7">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F94" t="s" s="7">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="14"/>
@@ -5299,22 +5378,22 @@
     </row>
     <row r="95" ht="26.75" customHeight="1">
       <c r="A95" t="s" s="11">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B95" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C95" t="s" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s" s="12">
         <v>22</v>
       </c>
       <c r="E95" t="s" s="7">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F95" t="s" s="7">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="14"/>
@@ -5334,19 +5413,19 @@
     </row>
     <row r="96" ht="13.55" customHeight="1">
       <c r="A96" t="s" s="11">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B96" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="15">
@@ -5365,13 +5444,13 @@
     </row>
     <row r="97" ht="13.55" customHeight="1">
       <c r="A97" t="s" s="11">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s" s="11">
         <v>29</v>
@@ -5396,16 +5475,16 @@
     </row>
     <row r="98" ht="13.55" customHeight="1">
       <c r="A98" t="s" s="11">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B98" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C98" t="s" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
@@ -5427,13 +5506,13 @@
     </row>
     <row r="99" ht="13.55" customHeight="1">
       <c r="A99" t="s" s="11">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B99" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s" s="11">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D99" t="s" s="11">
         <v>16</v>
@@ -5458,13 +5537,13 @@
     </row>
     <row r="100" ht="13.55" customHeight="1">
       <c r="A100" t="s" s="11">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B100" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C100" t="s" s="11">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D100" t="s" s="11">
         <v>19</v>
@@ -5489,13 +5568,13 @@
     </row>
     <row r="101" ht="13.55" customHeight="1">
       <c r="A101" t="s" s="11">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B101" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s" s="11">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D101" t="s" s="11">
         <v>22</v>
@@ -5520,19 +5599,19 @@
     </row>
     <row r="102" ht="13.55" customHeight="1">
       <c r="A102" t="s" s="11">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B102" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s" s="11">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D102" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="15">
@@ -5551,20 +5630,24 @@
     </row>
     <row r="103" ht="13.55" customHeight="1">
       <c r="A103" t="s" s="11">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s" s="11">
-        <v>224</v>
-      </c>
-      <c r="D103" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+        <v>232</v>
+      </c>
+      <c r="D103" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="E103" t="s" s="17">
+        <v>236</v>
+      </c>
+      <c r="F103" t="s" s="17">
+        <v>237</v>
+      </c>
+      <c r="G103" s="16"/>
       <c r="H103" s="14"/>
       <c r="I103" s="15">
         <v>10000</v>
